--- a/Sampling.xlsx
+++ b/Sampling.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="33">
   <si>
     <t>Lý do không thực hiện Random Sampling</t>
   </si>
@@ -60,112 +60,64 @@
  Random Sampling</t>
   </si>
   <si>
-    <t>Thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>Thành phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Phường Tây Mỗ</t>
-  </si>
-  <si>
-    <t>Phường Tương Mai</t>
-  </si>
-  <si>
-    <t>Phường Lĩnh Nam</t>
-  </si>
-  <si>
-    <t>Phường Phú Lương</t>
-  </si>
-  <si>
-    <t>Phường Xuân Đỉnh</t>
-  </si>
-  <si>
-    <t>Xã Hoài Đức</t>
-  </si>
-  <si>
-    <t>Xã Bát Tràng</t>
-  </si>
-  <si>
-    <t>Phường Hoàng Liệt</t>
-  </si>
-  <si>
-    <t>Xã Gia Lâm</t>
-  </si>
-  <si>
-    <t>Xã Sóc Sơn</t>
-  </si>
-  <si>
-    <t>Phường Bình Trị Đông</t>
-  </si>
-  <si>
-    <t>Phường Đông Hòa</t>
-  </si>
-  <si>
-    <t>Phường Phú Thọ</t>
-  </si>
-  <si>
-    <t>Phường Tân Đông Hiệp</t>
-  </si>
-  <si>
-    <t>Phường Phú Thuận</t>
-  </si>
-  <si>
-    <t>Xã Bình Chánh</t>
-  </si>
-  <si>
-    <t>Xã Cần Giờ</t>
+    <t>Tỉnh Cà Mau</t>
+  </si>
+  <si>
+    <t>Xã Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Xã Phú Mỹ</t>
+  </si>
+  <si>
+    <t>Phường Bạc Liêu</t>
+  </si>
+  <si>
+    <t>Xã Lương Thế Trân</t>
+  </si>
+  <si>
+    <t>Xã Vĩnh Lộc</t>
+  </si>
+  <si>
+    <t>Xã Tân Lộc</t>
+  </si>
+  <si>
+    <t>Xã Vĩnh Hậu</t>
+  </si>
+  <si>
+    <t>Xã Châu Thới</t>
+  </si>
+  <si>
+    <t>Xã</t>
   </si>
   <si>
     <t>Phường</t>
   </si>
   <si>
-    <t>Xã</t>
-  </si>
-  <si>
-    <t>Quận Nam Từ Liêm</t>
-  </si>
-  <si>
-    <t>Quận Hoàng Mai</t>
-  </si>
-  <si>
-    <t>Quận Hà Đông</t>
-  </si>
-  <si>
-    <t>Quận Bắc Từ Liêm</t>
-  </si>
-  <si>
-    <t>Huyện Hoài Đức</t>
-  </si>
-  <si>
-    <t>Huyện Gia Lâm</t>
-  </si>
-  <si>
-    <t>Huyện Thanh Trì</t>
-  </si>
-  <si>
-    <t>Huyện Sóc Sơn</t>
-  </si>
-  <si>
-    <t>Quận Bình Tân</t>
-  </si>
-  <si>
-    <t>Thành phố Dĩ An</t>
-  </si>
-  <si>
-    <t>Quận 11</t>
-  </si>
-  <si>
-    <t>Quận 7</t>
-  </si>
-  <si>
-    <t>Huyện Bình Chánh</t>
-  </si>
-  <si>
-    <t>Huyện Cần Giờ</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Huyện Đầm Dơi</t>
+  </si>
+  <si>
+    <t>Huyện Phú Tân</t>
+  </si>
+  <si>
+    <t>Thành phố Bạc Liêu</t>
+  </si>
+  <si>
+    <t>Huyện Cái Nước</t>
+  </si>
+  <si>
+    <t>Huyện Hồng Dân</t>
+  </si>
+  <si>
+    <t>Huyện Thới Bình</t>
+  </si>
+  <si>
+    <t>Huyện Hòa Bình</t>
+  </si>
+  <si>
+    <t>Huyện Vĩnh Lợi</t>
   </si>
 </sst>
 </file>
@@ -523,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -572,698 +524,352 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="1">
-        <v>634</v>
+        <v>32185</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1">
-        <v>556</v>
-      </c>
-      <c r="G2" s="1">
-        <v>46894</v>
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
-        <v>322</v>
+        <v>32214</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="1">
-        <v>356</v>
-      </c>
-      <c r="G3" s="1">
-        <v>136292</v>
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1">
-        <v>328</v>
+        <v>31825</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1086</v>
-      </c>
-      <c r="G4" s="1">
-        <v>706</v>
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
-        <v>9568</v>
+        <v>32134</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1">
-        <v>940</v>
-      </c>
-      <c r="G5" s="1">
-        <v>52024</v>
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
-        <v>611</v>
+        <v>31858</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1">
-        <v>546</v>
-      </c>
-      <c r="G6" s="1">
-        <v>48658</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
-        <v>9832</v>
+        <v>32083</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1673</v>
-      </c>
-      <c r="G7" s="1">
-        <v>69239</v>
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
-        <v>577</v>
+        <v>31927</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2067</v>
-      </c>
-      <c r="G8" s="1">
-        <v>48987</v>
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>337</v>
+        <v>31894</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1">
-        <v>404</v>
-      </c>
-      <c r="G9" s="1">
-        <v>55820</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
-        <v>565</v>
+        <v>32185</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2572</v>
-      </c>
-      <c r="G10" s="1">
-        <v>90498</v>
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <v>376</v>
+        <v>32214</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1">
-        <v>6824</v>
-      </c>
-      <c r="G11" s="1">
-        <v>117876</v>
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1">
-        <v>79</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1">
-        <v>27448</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="1">
-        <v>6824</v>
-      </c>
-      <c r="G12" s="1">
-        <v>136292</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1">
-        <v>25951</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="1">
-        <v>6824</v>
-      </c>
-      <c r="G13" s="1">
-        <v>136292</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1">
-        <v>27226</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1">
-        <v>6824</v>
-      </c>
-      <c r="G14" s="1">
-        <v>136292</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1">
-        <v>25945</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="1">
-        <v>6824</v>
-      </c>
-      <c r="G15" s="1">
-        <v>136292</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1">
-        <v>27484</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="1">
-        <v>6824</v>
-      </c>
-      <c r="G16" s="1">
-        <v>136292</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1">
-        <v>27637</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="1">
-        <v>6824</v>
-      </c>
-      <c r="G17" s="1">
-        <v>136292</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1">
-        <v>27664</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="1">
-        <v>6824</v>
-      </c>
-      <c r="G18" s="1">
-        <v>136292</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1">
-        <v>27448</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="1">
-        <v>6824</v>
-      </c>
-      <c r="G19" s="1">
-        <v>136292</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1">
-        <v>25951</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="1">
-        <v>6824</v>
-      </c>
-      <c r="G20" s="1">
-        <v>136292</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1">
-        <v>27226</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="1">
-        <v>6824</v>
-      </c>
-      <c r="G21" s="1">
-        <v>136292</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A21"/>
     <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B12:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sampling.xlsx
+++ b/Sampling.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="33">
-  <si>
-    <t>Lý do không thực hiện Random Sampling</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
   <si>
     <t>Mã TP</t>
   </si>
@@ -60,64 +57,67 @@
  Random Sampling</t>
   </si>
   <si>
-    <t>Tỉnh Cà Mau</t>
-  </si>
-  <si>
-    <t>Xã Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Xã Phú Mỹ</t>
-  </si>
-  <si>
-    <t>Phường Bạc Liêu</t>
-  </si>
-  <si>
-    <t>Xã Lương Thế Trân</t>
-  </si>
-  <si>
-    <t>Xã Vĩnh Lộc</t>
-  </si>
-  <si>
-    <t>Xã Tân Lộc</t>
-  </si>
-  <si>
-    <t>Xã Vĩnh Hậu</t>
-  </si>
-  <si>
-    <t>Xã Châu Thới</t>
-  </si>
-  <si>
-    <t>Xã</t>
+    <t>Lý do không thực hiện Random Sampling</t>
+  </si>
+  <si>
+    <t>Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>Phường Tây Mỗ</t>
+  </si>
+  <si>
+    <t>Phường Tương Mai</t>
+  </si>
+  <si>
+    <t>Phường Lĩnh Nam</t>
+  </si>
+  <si>
+    <t>Phường Phú Lương</t>
+  </si>
+  <si>
+    <t>Phường Xuân Đỉnh</t>
+  </si>
+  <si>
+    <t>Phường Kiến Hưng</t>
+  </si>
+  <si>
+    <t>Phường Cửa Nam</t>
+  </si>
+  <si>
+    <t>Phường Nghĩa Đô</t>
+  </si>
+  <si>
+    <t>Phường Bồ Đề</t>
+  </si>
+  <si>
+    <t>Phường Hoàn Kiếm</t>
   </si>
   <si>
     <t>Phường</t>
   </si>
   <si>
+    <t>Quận Nam Từ Liêm</t>
+  </si>
+  <si>
+    <t>Quận Hoàng Mai</t>
+  </si>
+  <si>
+    <t>Quận Hà Đông</t>
+  </si>
+  <si>
+    <t>Quận Bắc Từ Liêm</t>
+  </si>
+  <si>
+    <t>Quận Hoàn Kiếm</t>
+  </si>
+  <si>
+    <t>Quận Cầu Giấy</t>
+  </si>
+  <si>
+    <t>Quận Long Biên</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Huyện Đầm Dơi</t>
-  </si>
-  <si>
-    <t>Huyện Phú Tân</t>
-  </si>
-  <si>
-    <t>Thành phố Bạc Liêu</t>
-  </si>
-  <si>
-    <t>Huyện Cái Nước</t>
-  </si>
-  <si>
-    <t>Huyện Hồng Dân</t>
-  </si>
-  <si>
-    <t>Huyện Thới Bình</t>
-  </si>
-  <si>
-    <t>Huyện Hòa Bình</t>
-  </si>
-  <si>
-    <t>Huyện Vĩnh Lợi</t>
   </si>
 </sst>
 </file>
@@ -475,401 +475,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1">
-        <v>96</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1">
-        <v>32185</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1">
+        <v>634</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>556</v>
+      </c>
+      <c r="G3" s="1">
+        <v>46894</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
-        <v>32214</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
+      <c r="I3" s="1">
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1">
-        <v>31825</v>
+        <v>322</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="F4" s="1">
+        <v>356</v>
+      </c>
+      <c r="G4" s="1">
+        <v>136292</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
-        <v>32134</v>
+        <v>328</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1086</v>
+      </c>
+      <c r="G5" s="1">
+        <v>706</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
-        <v>31858</v>
+        <v>9568</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="F6" s="1">
+        <v>940</v>
+      </c>
+      <c r="G6" s="1">
+        <v>52024</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
-        <v>32083</v>
+        <v>611</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
+        <v>546</v>
+      </c>
+      <c r="G7" s="1">
+        <v>48658</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
-        <v>31927</v>
+        <v>9552</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="F8" s="1">
+        <v>665</v>
+      </c>
+      <c r="G8" s="1">
+        <v>70833</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>31894</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="F9" s="1">
+        <v>168</v>
+      </c>
+      <c r="G9" s="1">
+        <v>52751</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
-        <v>32185</v>
+        <v>160</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>434</v>
+      </c>
+      <c r="G10" s="1">
+        <v>125568</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <v>32214</v>
+        <v>118</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1294</v>
+      </c>
+      <c r="G11" s="1">
+        <v>120028</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
+        <v>70</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1">
+        <v>191</v>
+      </c>
+      <c r="G12" s="1">
+        <v>105301</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B3:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
